--- a/data/raw/RFV_codes_summary.xlsx
+++ b/data/raw/RFV_codes_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf232d0edde681ab/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sean7x\pathclarity\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BACBF2D-4991-4183-8D58-37929770889D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACB8A0E-AE91-4640-98F9-AE974EEC1F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="17280" windowHeight="18760" xr2:uid="{7122A197-0D85-444C-AF76-F81345A144D1}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t xml:space="preserve">Progress Visit, NEC </t>
   </si>
   <si>
-    <t xml:space="preserve">CODE NUMBER </t>
-  </si>
-  <si>
     <t xml:space="preserve">1001-1099 </t>
   </si>
   <si>
@@ -339,6 +336,10 @@
   </si>
   <si>
     <t>8990-8999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +727,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -738,13 +739,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -755,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -766,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -777,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -788,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -799,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -810,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -821,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -829,10 +830,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -843,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -854,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -865,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -876,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -887,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -898,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -909,7 +910,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -920,7 +921,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -931,7 +932,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -942,7 +943,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -953,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -964,7 +965,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -975,7 +976,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -986,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -997,7 +998,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1008,7 +1009,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1019,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1030,7 +1031,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1041,7 +1042,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1052,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1063,7 +1064,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1074,7 +1075,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1085,7 +1086,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1096,7 +1097,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1107,7 +1108,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1118,7 +1119,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1129,7 +1130,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1140,7 +1141,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1151,7 +1152,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1162,73 +1163,73 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
         <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
         <v>88</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
         <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
         <v>94</v>
-      </c>
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
